--- a/docs/stores.xlsx
+++ b/docs/stores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="16980" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+  <si>
+    <t>/public/images/storelogos/haven-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/bureau-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/union-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/norse-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/huf-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/dollskilll-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/forloveandlemons-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/stonecoldfox-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/sugarhigh-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/stonedimmaculate-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/topshop-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/asos-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/americanapparel-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/unif-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/uo-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/rvca-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/ssense-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/barneys-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/kitson-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/nordstrom-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/mrporter-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/end-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/maasandstacks-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>www.hufworldwide.com/</t>
   </si>
@@ -32,10 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/public/image/300.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.shopkitson.com/</t>
   </si>
   <si>
@@ -235,6 +323,14 @@
   </si>
   <si>
     <t>Store description goes here.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/nastygal-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/public/images/storelogos/anthropolgie-logo.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -637,47 +733,47 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -686,18 +782,18 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -706,18 +802,18 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -726,18 +822,18 @@
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -746,18 +842,18 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -766,18 +862,18 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -786,18 +882,18 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -806,19 +902,19 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
       <c r="D9">
         <v>18</v>
       </c>
@@ -826,19 +922,19 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
       <c r="D10">
         <v>18</v>
       </c>
@@ -846,18 +942,18 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -866,18 +962,18 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>18</v>
@@ -886,18 +982,18 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -906,18 +1002,18 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -926,18 +1022,18 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>18</v>
@@ -946,18 +1042,18 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -966,18 +1062,18 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="4">
         <v>18</v>
@@ -986,18 +1082,18 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>18</v>
@@ -1006,18 +1102,18 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
       </c>
       <c r="D19">
         <v>25</v>
@@ -1026,19 +1122,19 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
       <c r="D20">
         <v>18</v>
       </c>
@@ -1046,18 +1142,18 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -1066,18 +1162,18 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -1086,18 +1182,18 @@
         <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -1106,18 +1202,18 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>25</v>
@@ -1126,15 +1222,15 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1146,18 +1242,18 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -1166,11 +1262,10 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/docs/stores.xlsx
+++ b/docs/stores.xlsx
@@ -21,96 +21,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
-    <t>/public/images/storelogos/haven-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/bureau-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/union-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/norse-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/huf-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/dollskilll-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/forloveandlemons-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/stonecoldfox-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/sugarhigh-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/stonedimmaculate-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/topshop-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/asos-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/americanapparel-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/unif-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/uo-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/rvca-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/ssense-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/barneys-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/kitson-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/nordstrom-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/mrporter-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/end-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/maasandstacks-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>/images/storelogos/nastygal-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/images/storelogos/anthropolgie-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/images/storelogos/dollskilll-logo.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/images/storelogos/forloveandlemons-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/sugarhigh-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/stonedimmaculate-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/topshop-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/asos-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/americanapparel-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/unif-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/uo-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/rvca-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/ssense-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/barneys-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/kitson-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/nordstrom-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/mrporter-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/end-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/maasandstacks-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/haven-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/bureau-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/union-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/norse-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/huf-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/storelogos/stonecoldfox-logo.jpg</t>
   </si>
   <si>
     <t>www.hufworldwide.com/</t>
@@ -323,14 +309,6 @@
   </si>
   <si>
     <t>Store description goes here.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/nastygal-logo.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/images/storelogos/anthropolgie-logo.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +711,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -747,33 +725,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -782,18 +760,18 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -802,18 +780,18 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -822,18 +800,18 @@
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -842,18 +820,18 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -862,18 +840,18 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -882,18 +860,18 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>18</v>
@@ -902,18 +880,18 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>18</v>
@@ -922,18 +900,18 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -942,18 +920,18 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -962,18 +940,18 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>18</v>
@@ -982,18 +960,18 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -1002,18 +980,18 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -1022,18 +1000,18 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>18</v>
@@ -1042,18 +1020,18 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -1062,18 +1040,18 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4">
         <v>18</v>
@@ -1082,18 +1060,18 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
         <v>18</v>
@@ -1102,18 +1080,18 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>25</v>
@@ -1122,18 +1100,18 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -1142,18 +1120,18 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -1162,18 +1140,18 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -1182,18 +1160,18 @@
         <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -1202,18 +1180,18 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>25</v>
@@ -1222,18 +1200,18 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -1242,18 +1220,18 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -1262,10 +1240,11 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
